--- a/data/trans_orig/P3A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEA7DE7B-C5A7-4A71-9DC5-452C946CC055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{397C8F82-CE3F-443E-8725-B558FEFE7DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{52750468-21CD-4BC4-B744-6405D1E1378F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B0BA3E1D-8830-444F-B922-27B387DD13F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Tareas del hogar realizadas por el/la entrevistado/a en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,853 +77,865 @@
     <t>10,82%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
   </si>
   <si>
     <t>63,45%</t>
   </si>
   <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
     <t>60,78%</t>
   </si>
   <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
   </si>
   <si>
     <t>39,22%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
   </si>
   <si>
     <t>9,18%</t>
@@ -1353,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA0F972-A9CB-496B-8914-2E083EF10155}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F569A70-EC34-444D-8DD4-F498D78A5FC1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2020,7 +2032,7 @@
         <v>4479</v>
       </c>
       <c r="N14" s="7">
-        <v>4550035</v>
+        <v>4550036</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2071,7 +2083,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2104,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1332E3CC-EC0F-446B-AF13-8C5F4C2AAEF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9187051B-71A9-414D-BC3F-823B0F8B5D0F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2855,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC9D37B-C670-45CC-A42C-E0B5E50348F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D459C77-92A6-4ACF-8810-9DE5BB0B348F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3167,10 +3179,10 @@
         <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3197,13 @@
         <v>1807672</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>891</v>
@@ -3200,13 +3212,13 @@
         <v>912471</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>2596</v>
@@ -3215,13 +3227,13 @@
         <v>2720143</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3301,13 @@
         <v>99931</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>223</v>
@@ -3304,13 +3316,13 @@
         <v>236671</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>312</v>
@@ -3319,13 +3331,13 @@
         <v>336601</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3352,13 @@
         <v>446955</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>303</v>
@@ -3355,13 +3367,13 @@
         <v>312469</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>715</v>
@@ -3370,13 +3382,13 @@
         <v>759425</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3456,13 @@
         <v>487343</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>1827</v>
@@ -3459,13 +3471,13 @@
         <v>1953600</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>2282</v>
@@ -3474,13 +3486,13 @@
         <v>2440943</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,7 +3507,7 @@
         <v>2890275</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>224</v>
@@ -3606,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF3E8DB-F4C0-496D-85F6-501C5FBA3692}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D07BAC2-CFAF-43BC-ACA8-C3E0248084D7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4061,7 +4073,7 @@
         <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>1433</v>
@@ -4070,13 +4082,13 @@
         <v>1133029</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4103,13 @@
         <v>186211</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -4106,13 +4118,13 @@
         <v>67686</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>252</v>
@@ -4121,13 +4133,13 @@
         <v>253897</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4207,13 @@
         <v>2174365</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>4925</v>
@@ -4210,13 +4222,13 @@
         <v>3450390</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>7142</v>
@@ -4225,13 +4237,13 @@
         <v>5624756</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4258,13 @@
         <v>1202330</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>26</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>427</v>
@@ -4261,13 +4273,13 @@
         <v>348970</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>1574</v>
@@ -4276,13 +4288,13 @@
         <v>1551299</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P3A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{397C8F82-CE3F-443E-8725-B558FEFE7DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3464048-2D35-42D7-A0AD-2799182961D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B0BA3E1D-8830-444F-B922-27B387DD13F9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{96088549-7EEA-4F08-AC8E-51B0259AE0A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Tareas del hogar realizadas por el/la entrevistado/a en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>10,82%</t>
   </si>
   <si>
-    <t>8,96%</t>
+    <t>9,1%</t>
   </si>
   <si>
     <t>12,91%</t>
@@ -86,19 +86,19 @@
     <t>63,45%</t>
   </si>
   <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
   </si>
   <si>
     <t>40,31%</t>
   </si>
   <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,25 +110,25 @@
     <t>87,09%</t>
   </si>
   <si>
-    <t>91,04%</t>
+    <t>90,9%</t>
   </si>
   <si>
     <t>36,55%</t>
   </si>
   <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
   </si>
   <si>
     <t>59,69%</t>
   </si>
   <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>6,82%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
   </si>
   <si>
     <t>51,25%</t>
   </si>
   <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
   </si>
   <si>
     <t>28,32%</t>
   </si>
   <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
   </si>
   <si>
     <t>93,18%</t>
   </si>
   <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
   </si>
   <si>
     <t>48,75%</t>
   </si>
   <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>8,97%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
   </si>
   <si>
     <t>37,99%</t>
   </si>
   <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
   </si>
   <si>
     <t>22,42%</t>
   </si>
   <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
   </si>
   <si>
     <t>91,03%</t>
   </si>
   <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>62,01%</t>
   </si>
   <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
   </si>
   <si>
     <t>77,58%</t>
   </si>
   <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
   </si>
   <si>
     <t>8,44%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
   </si>
   <si>
     <t>54,13%</t>
   </si>
   <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
   </si>
   <si>
     <t>31,64%</t>
   </si>
   <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
   </si>
   <si>
     <t>91,56%</t>
   </si>
   <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
   </si>
   <si>
     <t>45,87%</t>
   </si>
   <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
   </si>
   <si>
     <t>68,36%</t>
   </si>
   <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,430 +311,424 @@
     <t>10,23%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
   </si>
   <si>
     <t>62,07%</t>
   </si>
   <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
   </si>
   <si>
     <t>40,22%</t>
   </si>
   <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
   </si>
   <si>
     <t>89,77%</t>
   </si>
   <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
   </si>
   <si>
     <t>37,93%</t>
   </si>
   <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
   </si>
   <si>
     <t>59,78%</t>
   </si>
   <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
   </si>
   <si>
     <t>53,74%</t>
   </si>
   <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
   </si>
   <si>
     <t>29,74%</t>
   </si>
   <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
   </si>
   <si>
     <t>91,73%</t>
   </si>
   <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>46,26%</t>
   </si>
   <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
   </si>
   <si>
     <t>70,26%</t>
   </si>
   <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
   </si>
   <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
   </si>
   <si>
     <t>40,12%</t>
   </si>
   <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
   </si>
   <si>
     <t>25,67%</t>
   </si>
   <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
   </si>
   <si>
     <t>88,1%</t>
   </si>
   <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>59,88%</t>
   </si>
   <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
   </si>
   <si>
     <t>74,33%</t>
   </si>
   <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>9,34%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
+    <t>10,35%</t>
   </si>
   <si>
     <t>55,11%</t>
   </si>
   <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
   </si>
   <si>
     <t>32,67%</t>
   </si>
   <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
   </si>
   <si>
     <t>90,66%</t>
   </si>
   <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
+    <t>89,65%</t>
   </si>
   <si>
     <t>44,89%</t>
   </si>
   <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
   </si>
   <si>
     <t>67,33%</t>
   </si>
   <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
   </si>
   <si>
     <t>64,45%</t>
   </si>
   <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
   </si>
   <si>
     <t>43,44%</t>
   </si>
   <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
   </si>
   <si>
     <t>84,26%</t>
   </si>
   <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
   </si>
   <si>
     <t>35,55%</t>
   </si>
   <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
   </si>
   <si>
     <t>56,56%</t>
   </si>
   <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
   </si>
   <si>
     <t>54,11%</t>
   </si>
   <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
   </si>
   <si>
     <t>33,08%</t>
   </si>
   <si>
-    <t>34,71%</t>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
   </si>
   <si>
     <t>87,06%</t>
   </si>
   <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
   </si>
   <si>
     <t>45,89%</t>
   </si>
   <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
   </si>
   <si>
     <t>66,92%</t>
   </si>
   <si>
-    <t>65,29%</t>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
   </si>
   <si>
     <t>18,27%</t>
   </si>
   <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
+    <t>15,19%</t>
   </si>
   <si>
     <t>43,1%</t>
   </si>
   <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
   </si>
   <si>
     <t>30,71%</t>
   </si>
   <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
   </si>
   <si>
     <t>81,73%</t>
   </si>
   <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>84,81%</t>
   </si>
   <si>
     <t>56,9%</t>
   </si>
   <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
   </si>
   <si>
     <t>69,29%</t>
   </si>
   <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
   </si>
   <si>
     <t>14,43%</t>
   </si>
   <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
   </si>
   <si>
     <t>55,31%</t>
   </si>
   <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
   </si>
   <si>
     <t>35,33%</t>
   </si>
   <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
   </si>
   <si>
     <t>85,57%</t>
   </si>
   <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>44,69%</t>
   </si>
   <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
   </si>
   <si>
     <t>64,67%</t>
   </si>
   <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
   </si>
   <si>
     <t>Tareas del hogar realizadas por el/la entrevistado/a en 2023 (Tasa respuesta: 100,0%)</t>
@@ -743,127 +737,124 @@
     <t>55,54%</t>
   </si>
   <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
   </si>
   <si>
     <t>84,73%</t>
   </si>
   <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
   </si>
   <si>
     <t>73,26%</t>
   </si>
   <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
   </si>
   <si>
     <t>44,46%</t>
   </si>
   <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
   </si>
   <si>
     <t>26,74%</t>
   </si>
   <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
   </si>
   <si>
     <t>64,14%</t>
   </si>
   <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
   </si>
   <si>
     <t>93,17%</t>
   </si>
   <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>78,94%</t>
   </si>
   <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
   </si>
   <si>
     <t>35,86%</t>
   </si>
   <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>72,33%</t>
   </si>
   <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>76,11%</t>
   </si>
   <si>
     <t>90,52%</t>
   </si>
   <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
   </si>
   <si>
     <t>81,69%</t>
@@ -872,31 +863,28 @@
     <t>79,36%</t>
   </si>
   <si>
-    <t>84,04%</t>
+    <t>83,75%</t>
   </si>
   <si>
     <t>27,67%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
+    <t>23,89%</t>
   </si>
   <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>15,96%</t>
+    <t>16,25%</t>
   </si>
   <si>
     <t>20,64%</t>
@@ -905,55 +893,55 @@
     <t>64,39%</t>
   </si>
   <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
   </si>
   <si>
     <t>90,82%</t>
   </si>
   <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>78,38%</t>
   </si>
   <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
   </si>
   <si>
     <t>35,61%</t>
   </si>
   <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
   </si>
   <si>
     <t>21,62%</t>
   </si>
   <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F569A70-EC34-444D-8DD4-F498D78A5FC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694EAA36-819E-4663-9558-EA5143C36448}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1692,7 +1680,7 @@
         <v>1543</v>
       </c>
       <c r="D8" s="7">
-        <v>1577896</v>
+        <v>1577897</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1743,7 +1731,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2002,7 +1990,7 @@
         <v>2953</v>
       </c>
       <c r="D14" s="7">
-        <v>2999905</v>
+        <v>2999904</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2053,7 +2041,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9187051B-71A9-414D-BC3F-823B0F8B5D0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A080A376-41A7-4AC7-B384-F8585DB7A8EB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2708,10 +2696,10 @@
         <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>1807</v>
@@ -2720,13 +2708,13 @@
         <v>1958878</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>2101</v>
@@ -2735,13 +2723,13 @@
         <v>2278239</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2744,13 @@
         <v>3100422</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>1487</v>
@@ -2771,13 +2759,13 @@
         <v>1595352</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>4395</v>
@@ -2786,13 +2774,13 @@
         <v>4695773</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D459C77-92A6-4ACF-8810-9DE5BB0B348F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762410DA-284D-45C9-BE81-A29EE3873FAE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2991,13 +2979,13 @@
         <v>118699</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>587</v>
@@ -3006,13 +2994,13 @@
         <v>641100</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>706</v>
@@ -3021,13 +3009,13 @@
         <v>759799</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3030,13 @@
         <v>635648</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>305</v>
@@ -3057,13 +3045,13 @@
         <v>353560</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>948</v>
@@ -3072,13 +3060,13 @@
         <v>989208</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3134,13 @@
         <v>268713</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>1017</v>
@@ -3161,13 +3149,13 @@
         <v>1075829</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>1264</v>
@@ -3176,13 +3164,13 @@
         <v>1344542</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3185,13 @@
         <v>1807672</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>891</v>
@@ -3212,13 +3200,13 @@
         <v>912471</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>2596</v>
@@ -3227,13 +3215,13 @@
         <v>2720143</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,7 +3295,7 @@
         <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
         <v>223</v>
@@ -3316,13 +3304,13 @@
         <v>236671</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>312</v>
@@ -3331,13 +3319,13 @@
         <v>336601</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3340,13 @@
         <v>446955</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>303</v>
@@ -3367,13 +3355,13 @@
         <v>312469</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>715</v>
@@ -3382,13 +3370,13 @@
         <v>759425</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3444,13 @@
         <v>487343</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>1827</v>
@@ -3471,13 +3459,13 @@
         <v>1953600</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>2282</v>
@@ -3486,13 +3474,13 @@
         <v>2440943</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3495,13 @@
         <v>2890275</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>1499</v>
@@ -3522,13 +3510,13 @@
         <v>1578500</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>4259</v>
@@ -3537,13 +3525,13 @@
         <v>4468775</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D07BAC2-CFAF-43BC-ACA8-C3E0248084D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4377C43-0DD7-46C0-A31D-1DAC7B177938}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,13 +3730,13 @@
         <v>300847</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>1209</v>
@@ -3757,13 +3745,13 @@
         <v>708317</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>1586</v>
@@ -3772,13 +3760,13 @@
         <v>1009163</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3781,13 @@
         <v>240787</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>218</v>
@@ -3808,13 +3796,13 @@
         <v>127636</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>532</v>
@@ -3823,13 +3811,13 @@
         <v>368423</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,28 +3885,28 @@
         <v>1386691</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>2783</v>
       </c>
       <c r="I7" s="7">
-        <v>2095872</v>
+        <v>2095873</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>4123</v>
@@ -3927,13 +3915,13 @@
         <v>3482564</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3936,13 @@
         <v>775331</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>138</v>
@@ -3963,13 +3951,13 @@
         <v>153648</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>790</v>
@@ -3978,13 +3966,13 @@
         <v>928979</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,7 +3999,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4052,13 +4040,13 @@
         <v>486828</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>84</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>933</v>
@@ -4067,13 +4055,13 @@
         <v>646200</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>1433</v>
@@ -4082,13 +4070,13 @@
         <v>1133029</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4091,13 @@
         <v>186211</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -4118,13 +4106,13 @@
         <v>67686</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>252</v>
@@ -4133,13 +4121,13 @@
         <v>253897</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4195,13 @@
         <v>2174365</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>4925</v>
@@ -4222,28 +4210,28 @@
         <v>3450390</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>7142</v>
       </c>
       <c r="N13" s="7">
-        <v>5624756</v>
+        <v>5624755</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,16 +4243,16 @@
         <v>1147</v>
       </c>
       <c r="D14" s="7">
-        <v>1202330</v>
+        <v>1202329</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>427</v>
@@ -4273,13 +4261,13 @@
         <v>348970</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>1574</v>
@@ -4288,13 +4276,13 @@
         <v>1551299</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4294,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4336,7 +4324,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P3A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3464048-2D35-42D7-A0AD-2799182961D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CAEF28A-4DEC-41C8-9D84-297D290FA041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{96088549-7EEA-4F08-AC8E-51B0259AE0A9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{31007F26-C078-4E54-99F8-9AD22BE669AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,64 +71,64 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
+    <t>SÍ</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,811 +137,817 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2016 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
   </si>
   <si>
     <t>7,46%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2012 (Tasa respuesta: 100,0%)</t>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694EAA36-819E-4663-9558-EA5143C36448}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D69457F-5314-4B2C-93C6-59DFCC0C99ED}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1471,10 +1477,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>110</v>
+        <v>334</v>
       </c>
       <c r="D4" s="7">
-        <v>111647</v>
+        <v>339466</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1486,10 +1492,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>822</v>
+        <v>1122</v>
       </c>
       <c r="I4" s="7">
-        <v>834409</v>
+        <v>1138553</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1501,10 +1507,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>932</v>
+        <v>1456</v>
       </c>
       <c r="N4" s="7">
-        <v>946056</v>
+        <v>1478019</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1522,10 +1528,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>928</v>
+        <v>704</v>
       </c>
       <c r="D5" s="7">
-        <v>920076</v>
+        <v>692257</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1537,10 +1543,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>469</v>
+        <v>168</v>
       </c>
       <c r="I5" s="7">
-        <v>480704</v>
+        <v>175545</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1552,10 +1558,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1397</v>
+        <v>872</v>
       </c>
       <c r="N5" s="7">
-        <v>1400780</v>
+        <v>867802</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1588,10 +1594,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I6" s="7">
-        <v>1315113</v>
+        <v>1314098</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1603,10 +1609,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2345821</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1626,10 +1632,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>106</v>
+        <v>510</v>
       </c>
       <c r="D7" s="7">
-        <v>115516</v>
+        <v>550294</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1641,10 +1647,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>781</v>
+        <v>1280</v>
       </c>
       <c r="I7" s="7">
-        <v>813675</v>
+        <v>1321570</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1656,10 +1662,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>887</v>
+        <v>1790</v>
       </c>
       <c r="N7" s="7">
-        <v>929191</v>
+        <v>1871864</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1677,10 +1683,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1543</v>
+        <v>1138</v>
       </c>
       <c r="D8" s="7">
-        <v>1577897</v>
+        <v>1142237</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1692,10 +1698,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>773</v>
+        <v>272</v>
       </c>
       <c r="I8" s="7">
-        <v>773998</v>
+        <v>263719</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1707,10 +1713,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>2316</v>
+        <v>1410</v>
       </c>
       <c r="N8" s="7">
-        <v>2351895</v>
+        <v>1405956</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1728,10 +1734,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1692531</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1743,10 +1749,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="I9" s="7">
-        <v>1587673</v>
+        <v>1585289</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1758,10 +1764,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="N9" s="7">
-        <v>3281086</v>
+        <v>3277820</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1781,10 +1787,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="D10" s="7">
-        <v>49476</v>
+        <v>230576</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1796,10 +1802,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>168</v>
+        <v>355</v>
       </c>
       <c r="I10" s="7">
-        <v>180983</v>
+        <v>377162</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1811,10 +1817,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>213</v>
+        <v>570</v>
       </c>
       <c r="N10" s="7">
-        <v>230458</v>
+        <v>607739</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1832,10 +1838,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>482</v>
+        <v>312</v>
       </c>
       <c r="D11" s="7">
-        <v>501932</v>
+        <v>320832</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1847,10 +1853,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>284</v>
+        <v>96</v>
       </c>
       <c r="I11" s="7">
-        <v>295429</v>
+        <v>98096</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1862,10 +1868,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>766</v>
+        <v>408</v>
       </c>
       <c r="N11" s="7">
-        <v>797362</v>
+        <v>418927</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1898,10 +1904,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I12" s="7">
-        <v>476412</v>
+        <v>475258</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1913,10 +1919,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="N12" s="7">
-        <v>1027820</v>
+        <v>1026666</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1936,10 +1942,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>261</v>
+        <v>1059</v>
       </c>
       <c r="D13" s="7">
-        <v>276639</v>
+        <v>1120337</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1951,10 +1957,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>1771</v>
+        <v>2757</v>
       </c>
       <c r="I13" s="7">
-        <v>1829067</v>
+        <v>2837286</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1966,10 +1972,10 @@
         <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>2032</v>
+        <v>3816</v>
       </c>
       <c r="N13" s="7">
-        <v>2105705</v>
+        <v>3957622</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1987,10 +1993,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2953</v>
+        <v>2154</v>
       </c>
       <c r="D14" s="7">
-        <v>2999904</v>
+        <v>2155325</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2002,10 +2008,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>1526</v>
+        <v>536</v>
       </c>
       <c r="I14" s="7">
-        <v>1550131</v>
+        <v>537360</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2017,10 +2023,10 @@
         <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>4479</v>
+        <v>2690</v>
       </c>
       <c r="N14" s="7">
-        <v>4550036</v>
+        <v>2692685</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2038,10 +2044,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3275662</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2053,10 +2059,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>3297</v>
+        <v>3293</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3374646</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2068,10 +2074,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>6511</v>
+        <v>6506</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6650307</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2104,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A080A376-41A7-4AC7-B384-F8585DB7A8EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EBC81E-87FF-445B-8AC9-B302CE467DF2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2222,10 +2228,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>91</v>
+        <v>327</v>
       </c>
       <c r="D4" s="7">
-        <v>99714</v>
+        <v>345487</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -2237,10 +2243,10 @@
         <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>774</v>
+        <v>1035</v>
       </c>
       <c r="I4" s="7">
-        <v>830317</v>
+        <v>1108436</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2252,10 +2258,10 @@
         <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>865</v>
+        <v>1362</v>
       </c>
       <c r="N4" s="7">
-        <v>930031</v>
+        <v>1453922</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>95</v>
@@ -2273,10 +2279,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>817</v>
+        <v>580</v>
       </c>
       <c r="D5" s="7">
-        <v>874929</v>
+        <v>628097</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>98</v>
@@ -2288,10 +2294,10 @@
         <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>473</v>
+        <v>211</v>
       </c>
       <c r="I5" s="7">
-        <v>507479</v>
+        <v>228361</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -2303,10 +2309,10 @@
         <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>1290</v>
+        <v>791</v>
       </c>
       <c r="N5" s="7">
-        <v>1382409</v>
+        <v>856458</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>104</v>
@@ -2324,10 +2330,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D6" s="7">
-        <v>974643</v>
+        <v>973584</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2339,10 +2345,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1336797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2354,10 +2360,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="N6" s="7">
-        <v>2312440</v>
+        <v>2310380</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2377,10 +2383,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>150</v>
+        <v>830</v>
       </c>
       <c r="D7" s="7">
-        <v>162402</v>
+        <v>886184</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -2392,10 +2398,10 @@
         <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>869</v>
+        <v>1380</v>
       </c>
       <c r="I7" s="7">
-        <v>944577</v>
+        <v>1489202</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>110</v>
@@ -2407,10 +2413,10 @@
         <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>1019</v>
+        <v>2210</v>
       </c>
       <c r="N7" s="7">
-        <v>1106979</v>
+        <v>2375386</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>113</v>
@@ -2428,10 +2434,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1706</v>
+        <v>1026</v>
       </c>
       <c r="D8" s="7">
-        <v>1801555</v>
+        <v>1077773</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>116</v>
@@ -2443,10 +2449,10 @@
         <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>766</v>
+        <v>254</v>
       </c>
       <c r="I8" s="7">
-        <v>813226</v>
+        <v>267599</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>119</v>
@@ -2458,10 +2464,10 @@
         <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>2472</v>
+        <v>1280</v>
       </c>
       <c r="N8" s="7">
-        <v>2614781</v>
+        <v>1345372</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>122</v>
@@ -2494,10 +2500,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="I9" s="7">
-        <v>1757803</v>
+        <v>1756801</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2509,10 +2515,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="N9" s="7">
-        <v>3721760</v>
+        <v>3720758</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2532,10 +2538,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>233</v>
       </c>
       <c r="D10" s="7">
-        <v>57245</v>
+        <v>261455</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>125</v>
@@ -2547,10 +2553,10 @@
         <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>164</v>
+        <v>336</v>
       </c>
       <c r="I10" s="7">
-        <v>183985</v>
+        <v>373183</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>128</v>
@@ -2562,10 +2568,10 @@
         <v>130</v>
       </c>
       <c r="M10" s="7">
-        <v>217</v>
+        <v>569</v>
       </c>
       <c r="N10" s="7">
-        <v>241229</v>
+        <v>634638</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>131</v>
@@ -2583,10 +2589,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>385</v>
+        <v>205</v>
       </c>
       <c r="D11" s="7">
-        <v>423936</v>
+        <v>219726</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>134</v>
@@ -2598,10 +2604,10 @@
         <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="I11" s="7">
-        <v>274646</v>
+        <v>85448</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>137</v>
@@ -2613,10 +2619,10 @@
         <v>139</v>
       </c>
       <c r="M11" s="7">
-        <v>633</v>
+        <v>281</v>
       </c>
       <c r="N11" s="7">
-        <v>698583</v>
+        <v>305174</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>140</v>
@@ -2687,43 +2693,43 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>294</v>
+        <v>1390</v>
       </c>
       <c r="D13" s="7">
-        <v>319360</v>
+        <v>1493126</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
-        <v>1807</v>
+        <v>2751</v>
       </c>
       <c r="I13" s="7">
-        <v>1958878</v>
+        <v>2970821</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
-        <v>2101</v>
+        <v>4141</v>
       </c>
       <c r="N13" s="7">
-        <v>2278239</v>
+        <v>4463947</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>149</v>
@@ -2738,10 +2744,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2908</v>
+        <v>1811</v>
       </c>
       <c r="D14" s="7">
-        <v>3100422</v>
+        <v>1925596</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>151</v>
@@ -2750,31 +2756,31 @@
         <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
-        <v>1487</v>
+        <v>541</v>
       </c>
       <c r="I14" s="7">
-        <v>1595352</v>
+        <v>581408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
-        <v>4395</v>
+        <v>2352</v>
       </c>
       <c r="N14" s="7">
-        <v>4695773</v>
+        <v>2507005</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>157</v>
@@ -2789,10 +2795,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="D15" s="7">
-        <v>3419782</v>
+        <v>3418722</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2804,10 +2810,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>3294</v>
+        <v>3292</v>
       </c>
       <c r="I15" s="7">
-        <v>3554230</v>
+        <v>3552229</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2819,10 +2825,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>6496</v>
+        <v>6493</v>
       </c>
       <c r="N15" s="7">
-        <v>6974012</v>
+        <v>6970952</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2855,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762410DA-284D-45C9-BE81-A29EE3873FAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6C0314-900B-43EE-BA1B-4CB55D37197C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2973,10 +2979,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>119</v>
+        <v>319</v>
       </c>
       <c r="D4" s="7">
-        <v>118699</v>
+        <v>319574</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>160</v>
@@ -2988,10 +2994,10 @@
         <v>162</v>
       </c>
       <c r="H4" s="7">
-        <v>587</v>
+        <v>767</v>
       </c>
       <c r="I4" s="7">
-        <v>641100</v>
+        <v>841491</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>163</v>
@@ -3003,10 +3009,10 @@
         <v>165</v>
       </c>
       <c r="M4" s="7">
-        <v>706</v>
+        <v>1086</v>
       </c>
       <c r="N4" s="7">
-        <v>759799</v>
+        <v>1161065</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>166</v>
@@ -3024,10 +3030,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>643</v>
+        <v>440</v>
       </c>
       <c r="D5" s="7">
-        <v>635648</v>
+        <v>432083</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>169</v>
@@ -3039,10 +3045,10 @@
         <v>171</v>
       </c>
       <c r="H5" s="7">
-        <v>305</v>
+        <v>123</v>
       </c>
       <c r="I5" s="7">
-        <v>353560</v>
+        <v>151112</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>172</v>
@@ -3054,10 +3060,10 @@
         <v>174</v>
       </c>
       <c r="M5" s="7">
-        <v>948</v>
+        <v>563</v>
       </c>
       <c r="N5" s="7">
-        <v>989208</v>
+        <v>583195</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>175</v>
@@ -3075,10 +3081,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D6" s="7">
-        <v>754347</v>
+        <v>751657</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3090,10 +3096,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="I6" s="7">
-        <v>994660</v>
+        <v>992603</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3105,10 +3111,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="N6" s="7">
-        <v>1749007</v>
+        <v>1744260</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3128,10 +3134,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>247</v>
+        <v>1042</v>
       </c>
       <c r="D7" s="7">
-        <v>268713</v>
+        <v>1112341</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>178</v>
@@ -3143,10 +3149,10 @@
         <v>180</v>
       </c>
       <c r="H7" s="7">
-        <v>1017</v>
+        <v>1690</v>
       </c>
       <c r="I7" s="7">
-        <v>1075829</v>
+        <v>1766353</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>181</v>
@@ -3158,10 +3164,10 @@
         <v>183</v>
       </c>
       <c r="M7" s="7">
-        <v>1264</v>
+        <v>2732</v>
       </c>
       <c r="N7" s="7">
-        <v>1344542</v>
+        <v>2878695</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>184</v>
@@ -3179,10 +3185,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1705</v>
+        <v>906</v>
       </c>
       <c r="D8" s="7">
-        <v>1807672</v>
+        <v>958665</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>187</v>
@@ -3194,10 +3200,10 @@
         <v>189</v>
       </c>
       <c r="H8" s="7">
-        <v>891</v>
+        <v>216</v>
       </c>
       <c r="I8" s="7">
-        <v>912471</v>
+        <v>219972</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>190</v>
@@ -3209,10 +3215,10 @@
         <v>192</v>
       </c>
       <c r="M8" s="7">
-        <v>2596</v>
+        <v>1122</v>
       </c>
       <c r="N8" s="7">
-        <v>2720143</v>
+        <v>1178637</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>193</v>
@@ -3230,10 +3236,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="D9" s="7">
-        <v>2076385</v>
+        <v>2071006</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3245,10 +3251,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="I9" s="7">
-        <v>1988300</v>
+        <v>1986325</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3260,10 +3266,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>3860</v>
+        <v>3854</v>
       </c>
       <c r="N9" s="7">
-        <v>4064685</v>
+        <v>4057332</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3283,10 +3289,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>89</v>
+        <v>327</v>
       </c>
       <c r="D10" s="7">
-        <v>99931</v>
+        <v>360088</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>196</v>
@@ -3295,37 +3301,37 @@
         <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
-        <v>223</v>
+        <v>453</v>
       </c>
       <c r="I10" s="7">
-        <v>236671</v>
+        <v>473081</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
-        <v>312</v>
+        <v>780</v>
       </c>
       <c r="N10" s="7">
-        <v>336601</v>
+        <v>833169</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,49 +3340,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>412</v>
+        <v>173</v>
       </c>
       <c r="D11" s="7">
-        <v>446955</v>
+        <v>185826</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
-        <v>303</v>
+        <v>72</v>
       </c>
       <c r="I11" s="7">
-        <v>312469</v>
+        <v>75130</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
-        <v>715</v>
+        <v>245</v>
       </c>
       <c r="N11" s="7">
-        <v>759425</v>
+        <v>260956</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,10 +3391,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D12" s="7">
-        <v>546886</v>
+        <v>545914</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3400,10 +3406,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I12" s="7">
-        <v>549140</v>
+        <v>548211</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3415,10 +3421,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1094125</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3438,49 +3444,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>455</v>
+        <v>1688</v>
       </c>
       <c r="D13" s="7">
-        <v>487343</v>
+        <v>1792003</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
-        <v>1827</v>
+        <v>2910</v>
       </c>
       <c r="I13" s="7">
-        <v>1953600</v>
+        <v>3080925</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
-        <v>2282</v>
+        <v>4598</v>
       </c>
       <c r="N13" s="7">
-        <v>2440943</v>
+        <v>4872929</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,49 +3495,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2760</v>
+        <v>1519</v>
       </c>
       <c r="D14" s="7">
-        <v>2890275</v>
+        <v>1576573</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
-        <v>1499</v>
+        <v>411</v>
       </c>
       <c r="I14" s="7">
-        <v>1578500</v>
+        <v>446214</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
-        <v>4259</v>
+        <v>1930</v>
       </c>
       <c r="N14" s="7">
-        <v>4468775</v>
+        <v>2022787</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,10 +3546,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3215</v>
+        <v>3207</v>
       </c>
       <c r="D15" s="7">
-        <v>3377618</v>
+        <v>3368576</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3555,10 +3561,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>3326</v>
+        <v>3321</v>
       </c>
       <c r="I15" s="7">
-        <v>3532100</v>
+        <v>3527139</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3570,10 +3576,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>6541</v>
+        <v>6528</v>
       </c>
       <c r="N15" s="7">
-        <v>6909718</v>
+        <v>6895716</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3606,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4377C43-0DD7-46C0-A31D-1DAC7B177938}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD33B65-4171-420F-8647-6EEFE8E1BD44}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,13 +3736,13 @@
         <v>300847</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>1209</v>
@@ -3745,13 +3751,13 @@
         <v>708317</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>1586</v>
@@ -3760,13 +3766,13 @@
         <v>1009163</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3787,13 @@
         <v>240787</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>218</v>
@@ -3796,13 +3802,13 @@
         <v>127636</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>532</v>
@@ -3811,13 +3817,13 @@
         <v>368423</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3891,13 @@
         <v>1386691</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>2783</v>
@@ -3900,28 +3906,28 @@
         <v>2095873</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>4123</v>
       </c>
       <c r="N7" s="7">
-        <v>3482564</v>
+        <v>3482563</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,49 +3936,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D8" s="7">
-        <v>775331</v>
+        <v>774167</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I8" s="7">
-        <v>153648</v>
+        <v>152285</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="N8" s="7">
-        <v>928979</v>
+        <v>926452</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,10 +3987,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2160858</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3996,10 +4002,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2248158</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4011,10 +4017,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>4913</v>
+        <v>4909</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4409015</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4040,13 +4046,13 @@
         <v>486828</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>84</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>933</v>
@@ -4055,13 +4061,13 @@
         <v>646200</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>1433</v>
@@ -4070,13 +4076,13 @@
         <v>1133029</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4097,13 @@
         <v>186211</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>75</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -4106,13 +4112,13 @@
         <v>67686</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>252</v>
@@ -4121,13 +4127,13 @@
         <v>253897</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4201,13 @@
         <v>2174365</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>4925</v>
@@ -4210,13 +4216,13 @@
         <v>3450390</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>7142</v>
@@ -4225,13 +4231,13 @@
         <v>5624755</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,49 +4246,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D14" s="7">
-        <v>1202329</v>
+        <v>1201165</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I14" s="7">
-        <v>348970</v>
+        <v>347607</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="N14" s="7">
-        <v>1551299</v>
+        <v>1548772</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,10 +4297,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3364</v>
+        <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3375530</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4306,10 +4312,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>5352</v>
+        <v>5350</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3797997</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4321,10 +4327,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>8716</v>
+        <v>8712</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7173527</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P3A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CAEF28A-4DEC-41C8-9D84-297D290FA041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85F1237B-BAB9-43FA-9DE1-0EA578168847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{31007F26-C078-4E54-99F8-9AD22BE669AC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{53E2487C-4DDC-4E9D-828D-029301DA915B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>32,9%</t>
@@ -101,7 +101,7 @@
     <t>64,81%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>67,1%</t>
@@ -740,214 +740,214 @@
     <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
   </si>
   <si>
     <t>66,4%</t>
   </si>
   <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
   </si>
   <si>
     <t>33,6%</t>
   </si>
   <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D69457F-5314-4B2C-93C6-59DFCC0C99ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BA65F5-BE1D-4632-BCB9-999313D6819A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1945,7 +1945,7 @@
         <v>1059</v>
       </c>
       <c r="D13" s="7">
-        <v>1120337</v>
+        <v>1120336</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1960,7 +1960,7 @@
         <v>2757</v>
       </c>
       <c r="I13" s="7">
-        <v>2837286</v>
+        <v>2837285</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -2047,7 +2047,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275662</v>
+        <v>3275661</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2062,7 +2062,7 @@
         <v>3293</v>
       </c>
       <c r="I15" s="7">
-        <v>3374646</v>
+        <v>3374645</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2110,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EBC81E-87FF-445B-8AC9-B302CE467DF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B18C6A0-1A8A-4F0E-A584-BDB811786B20}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2231,7 +2231,7 @@
         <v>327</v>
       </c>
       <c r="D4" s="7">
-        <v>345487</v>
+        <v>345486</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>89</v>
@@ -2261,7 +2261,7 @@
         <v>1362</v>
       </c>
       <c r="N4" s="7">
-        <v>1453922</v>
+        <v>1453923</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>95</v>
@@ -2333,7 +2333,7 @@
         <v>907</v>
       </c>
       <c r="D6" s="7">
-        <v>973584</v>
+        <v>973583</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2363,7 +2363,7 @@
         <v>2153</v>
       </c>
       <c r="N6" s="7">
-        <v>2310380</v>
+        <v>2310381</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2622,7 +2622,7 @@
         <v>281</v>
       </c>
       <c r="N11" s="7">
-        <v>305174</v>
+        <v>305175</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>140</v>
@@ -2673,7 +2673,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2777,7 +2777,7 @@
         <v>2352</v>
       </c>
       <c r="N14" s="7">
-        <v>2507005</v>
+        <v>2507004</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>13</v>
@@ -2828,7 +2828,7 @@
         <v>6493</v>
       </c>
       <c r="N15" s="7">
-        <v>6970952</v>
+        <v>6970951</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2861,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6C0314-900B-43EE-BA1B-4CB55D37197C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC79C7-343C-4F1F-82A3-5EA3AD9F67DD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3167,7 +3167,7 @@
         <v>2732</v>
       </c>
       <c r="N7" s="7">
-        <v>2878695</v>
+        <v>2878694</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>184</v>
@@ -3269,7 +3269,7 @@
         <v>3854</v>
       </c>
       <c r="N9" s="7">
-        <v>4057332</v>
+        <v>4057331</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3498,7 +3498,7 @@
         <v>1519</v>
       </c>
       <c r="D14" s="7">
-        <v>1576573</v>
+        <v>1576574</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>223</v>
@@ -3549,7 +3549,7 @@
         <v>3207</v>
       </c>
       <c r="D15" s="7">
-        <v>3368576</v>
+        <v>3368577</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3612,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD33B65-4171-420F-8647-6EEFE8E1BD44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B55A85-74E2-4C46-B3F7-ED0AEF6FFC64}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3733,7 +3733,7 @@
         <v>377</v>
       </c>
       <c r="D4" s="7">
-        <v>300847</v>
+        <v>288546</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>233</v>
@@ -3748,31 +3748,31 @@
         <v>1209</v>
       </c>
       <c r="I4" s="7">
-        <v>708317</v>
+        <v>641382</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>1586</v>
       </c>
       <c r="N4" s="7">
-        <v>1009163</v>
+        <v>929928</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,46 +3784,46 @@
         <v>314</v>
       </c>
       <c r="D5" s="7">
-        <v>240787</v>
+        <v>226392</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>218</v>
       </c>
       <c r="I5" s="7">
-        <v>127636</v>
+        <v>114126</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>83</v>
       </c>
       <c r="M5" s="7">
         <v>532</v>
       </c>
       <c r="N5" s="7">
-        <v>368423</v>
+        <v>340518</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,7 +3835,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3850,7 +3850,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3865,7 +3865,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3888,46 +3888,46 @@
         <v>1340</v>
       </c>
       <c r="D7" s="7">
-        <v>1386691</v>
+        <v>1354415</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>2783</v>
       </c>
       <c r="I7" s="7">
-        <v>2095873</v>
+        <v>2101599</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>4123</v>
       </c>
       <c r="N7" s="7">
-        <v>3482563</v>
+        <v>3456014</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,46 +3939,46 @@
         <v>650</v>
       </c>
       <c r="D8" s="7">
-        <v>774167</v>
+        <v>934813</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>136</v>
       </c>
       <c r="I8" s="7">
-        <v>152285</v>
+        <v>134965</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>786</v>
       </c>
       <c r="N8" s="7">
-        <v>926452</v>
+        <v>1069778</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,7 +3990,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2160858</v>
+        <v>2289228</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4005,7 +4005,7 @@
         <v>2919</v>
       </c>
       <c r="I9" s="7">
-        <v>2248158</v>
+        <v>2236564</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4020,7 +4020,7 @@
         <v>4909</v>
       </c>
       <c r="N9" s="7">
-        <v>4409015</v>
+        <v>4525792</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4043,46 +4043,46 @@
         <v>500</v>
       </c>
       <c r="D10" s="7">
-        <v>486828</v>
+        <v>470459</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>933</v>
       </c>
       <c r="I10" s="7">
-        <v>646200</v>
+        <v>597713</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>1433</v>
       </c>
       <c r="N10" s="7">
-        <v>1133029</v>
+        <v>1068172</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,46 +4094,46 @@
         <v>181</v>
       </c>
       <c r="D11" s="7">
-        <v>186211</v>
+        <v>176164</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
       </c>
       <c r="I11" s="7">
-        <v>67686</v>
+        <v>62750</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>252</v>
       </c>
       <c r="N11" s="7">
-        <v>253897</v>
+        <v>238914</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,7 +4145,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4160,7 +4160,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4175,7 +4175,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4198,7 +4198,7 @@
         <v>2217</v>
       </c>
       <c r="D13" s="7">
-        <v>2174365</v>
+        <v>2113420</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>285</v>
@@ -4213,7 +4213,7 @@
         <v>4925</v>
       </c>
       <c r="I13" s="7">
-        <v>3450390</v>
+        <v>3340694</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>288</v>
@@ -4228,7 +4228,7 @@
         <v>7142</v>
       </c>
       <c r="N13" s="7">
-        <v>5624755</v>
+        <v>5454113</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>291</v>
@@ -4249,7 +4249,7 @@
         <v>1145</v>
       </c>
       <c r="D14" s="7">
-        <v>1201165</v>
+        <v>1337370</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>294</v>
@@ -4264,7 +4264,7 @@
         <v>425</v>
       </c>
       <c r="I14" s="7">
-        <v>347607</v>
+        <v>311841</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>297</v>
@@ -4279,7 +4279,7 @@
         <v>1570</v>
       </c>
       <c r="N14" s="7">
-        <v>1548772</v>
+        <v>1649211</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>300</v>
@@ -4300,7 +4300,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3375530</v>
+        <v>3450790</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4315,7 +4315,7 @@
         <v>5350</v>
       </c>
       <c r="I15" s="7">
-        <v>3797997</v>
+        <v>3652535</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4330,7 +4330,7 @@
         <v>8712</v>
       </c>
       <c r="N15" s="7">
-        <v>7173527</v>
+        <v>7103324</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
